--- a/notebooks/horiz yagi SAR grid points.xlsx
+++ b/notebooks/horiz yagi SAR grid points.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="8_{189556C6-9DAB-4930-BA08-037EAFEAA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B8D3C6-E6D9-46DB-B176-55230157D07E}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="570" windowWidth="17205" windowHeight="18690" xr2:uid="{C9CAC464-F6EB-435F-A534-1AC384329FDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9CAC464-F6EB-435F-A534-1AC384329FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3464,14 +3464,14 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>-0.5</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>-0.2</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.25</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.8</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.3</v>
       </c>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.9</v>
       </c>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2.8</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.1</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.2</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.36</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.6</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.9</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1.4</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3633,12 +3633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>-2</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>-1.35</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>-0.75</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>-0.3</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.3</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.75</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1.35</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
